--- a/Integra_Framework/src/main/java/com/integra/testdata/IntegraTestData.xlsx
+++ b/Integra_Framework/src/main/java/com/integra/testdata/IntegraTestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add_SC" sheetId="1" r:id="rId1"/>
+    <sheet name="Add_Participant" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Email_ID</t>
   </si>
@@ -56,6 +57,126 @@
   </si>
   <si>
     <t>9429179218</t>
+  </si>
+  <si>
+    <t>NDIA_Number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Middle_Name</t>
+  </si>
+  <si>
+    <t>Disability_Type</t>
+  </si>
+  <si>
+    <t>Preferred_Name</t>
+  </si>
+  <si>
+    <t>Other_Disability_Type</t>
+  </si>
+  <si>
+    <t>Indigenous_Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>State_Territory</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Suburb_City</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Home_Phone</t>
+  </si>
+  <si>
+    <t>Mobile_Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ACTIVE G2B</t>
+  </si>
+  <si>
+    <t>REGION3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Automate Participant</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Automate_Participant</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Integra</t>
+  </si>
+  <si>
+    <t>Yes.Torres Strait Islander</t>
+  </si>
+  <si>
+    <t>Automation script Created by punit shah</t>
+  </si>
+  <si>
+    <t>bosten street</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Barossa Light and Lower Northern</t>
+  </si>
+  <si>
+    <t>bosten</t>
+  </si>
+  <si>
+    <t>shahpunit63@gmail.com</t>
+  </si>
+  <si>
+    <t>3052</t>
+  </si>
+  <si>
+    <t>9856236521</t>
+  </si>
+  <si>
+    <t>6956326545</t>
+  </si>
+  <si>
+    <t>Service_Catalogue</t>
+  </si>
+  <si>
+    <t>Integra_Service</t>
+  </si>
+  <si>
+    <t>Unit_Street_Name</t>
+  </si>
+  <si>
+    <t>95632654</t>
   </si>
 </sst>
 </file>
@@ -129,13 +250,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -512,4 +636,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>